--- a/Data Files/TestDataSanity.xlsx
+++ b/Data Files/TestDataSanity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\katalon\GitCodeAccessWeb\AccessWeb\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_Merged\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178F1FA3-D718-46FA-82D8-1BAD150CF59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2711854-D322-416A-A017-45CD4BF1E41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="954" firstSheet="2" activeTab="10" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="1" activeTab="6" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="26" r:id="rId1"/>
@@ -23,11 +23,14 @@
     <sheet name="JS-Latest" sheetId="16" r:id="rId8"/>
     <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId9"/>
     <sheet name="FolderOperations" sheetId="11" r:id="rId10"/>
-    <sheet name="FileOperations" sheetId="9" r:id="rId11"/>
-    <sheet name="JobFilters" sheetId="8" r:id="rId12"/>
-    <sheet name="FileViewerOps" sheetId="15" r:id="rId13"/>
-    <sheet name="CreateFolder" sheetId="2" r:id="rId14"/>
-    <sheet name="CreateFile" sheetId="3" r:id="rId15"/>
+    <sheet name="FolderOps" sheetId="33" r:id="rId11"/>
+    <sheet name="FileViewer" sheetId="34" r:id="rId12"/>
+    <sheet name="FileOperations" sheetId="9" r:id="rId13"/>
+    <sheet name="JobFilters" sheetId="8" r:id="rId14"/>
+    <sheet name="FileViewerOps" sheetId="15" r:id="rId15"/>
+    <sheet name="CreateFile" sheetId="3" r:id="rId16"/>
+    <sheet name="CreateFolder" sheetId="2" r:id="rId17"/>
+    <sheet name="FolderUpload" sheetId="32" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'JS-Latest'!$A$1:$G$1</definedName>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="308">
   <si>
     <t>FolderName</t>
   </si>
@@ -311,9 +314,6 @@
     <t>MyFolderDelete_TV</t>
   </si>
   <si>
-    <t>MyFolderDownload_TV</t>
-  </si>
-  <si>
     <t>MyFolderRename_TV</t>
   </si>
   <si>
@@ -371,15 +371,6 @@
     <t xml:space="preserve">Test case to Rename Folder in  tile view </t>
   </si>
   <si>
-    <t>Test case to Download Folder in list view</t>
-  </si>
-  <si>
-    <t>Test case to Download Folder in tile view</t>
-  </si>
-  <si>
-    <t>MyFolderDownload_LV</t>
-  </si>
-  <si>
     <t>Test case to Rename File in  Job Submission</t>
   </si>
   <si>
@@ -512,499 +503,481 @@
     <t>NCPU</t>
   </si>
   <si>
+    <t>VER</t>
+  </si>
+  <si>
+    <t>OUTFOLDER</t>
+  </si>
+  <si>
+    <t>proName</t>
+  </si>
+  <si>
+    <t>InputFile</t>
+  </si>
+  <si>
+    <t>fileArg</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>JobState</t>
+  </si>
+  <si>
+    <t>JobAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case to delete file from file details page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Jobs Filter for compute queue </t>
+  </si>
+  <si>
+    <t>terminate_icon</t>
+  </si>
+  <si>
+    <t>ToRename.txt</t>
+  </si>
+  <si>
+    <t>ProfileType</t>
+  </si>
+  <si>
+    <t>job_state_filters</t>
+  </si>
+  <si>
+    <t>jobState</t>
+  </si>
+  <si>
+    <t>Verify Jobs Filter for Completed State</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Verify Jobs Filter for Running State</t>
+  </si>
+  <si>
+    <t>Verify Jobs Filter for Failed State</t>
+  </si>
+  <si>
+    <t>Verify Jobs Filter for Queued State</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Test to submit job in list view using ShellScript</t>
+  </si>
+  <si>
+    <t>Test to submit job in list view using RADIOSS-SMP</t>
+  </si>
+  <si>
+    <t>Test to submit job in list view using Optistruct</t>
+  </si>
+  <si>
+    <t>ProfileSubmissions</t>
+  </si>
+  <si>
+    <t>ProfileOperations</t>
+  </si>
+  <si>
+    <t>JobActionIcon</t>
+  </si>
+  <si>
+    <t>JS-Latest</t>
+  </si>
+  <si>
+    <t>JobSubmission-File operations</t>
+  </si>
+  <si>
+    <t>FolderOperations</t>
+  </si>
+  <si>
+    <t>FileOperations</t>
+  </si>
+  <si>
+    <t>JobFilters</t>
+  </si>
+  <si>
+    <t>FileViewerOps</t>
+  </si>
+  <si>
+    <t>CreateFolder</t>
+  </si>
+  <si>
+    <t>CreateFile</t>
+  </si>
+  <si>
+    <t>/stage/JSOutPutDir</t>
+  </si>
+  <si>
+    <t>userChoice</t>
+  </si>
+  <si>
+    <t>Verify Jobs Filter for Array Jobs</t>
+  </si>
+  <si>
+    <t>job_array_filters</t>
+  </si>
+  <si>
+    <t>Job Type</t>
+  </si>
+  <si>
+    <t>Array Jobs</t>
+  </si>
+  <si>
+    <t>ListView</t>
+  </si>
+  <si>
+    <t>TileView</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Open With</t>
+  </si>
+  <si>
+    <t>Test case to open file in job details page Input Folder</t>
+  </si>
+  <si>
+    <t>Test case to open with  file in job details page Input Folder</t>
+  </si>
+  <si>
+    <t>Test case to download file in job details page Input Folder</t>
+  </si>
+  <si>
+    <t>Test case to delete file in job details page Input Folder</t>
+  </si>
+  <si>
+    <t>Test case to open file in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>Test case to open with  file in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>Test case to create new file in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>New File</t>
+  </si>
+  <si>
+    <t>Test case to download file in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>Test case to rename file in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>Test case to open file in job details page Running Folder</t>
+  </si>
+  <si>
+    <t>Test case to open with  file in job details page Running Folder</t>
+  </si>
+  <si>
+    <t>Test case to create new file in job details page Running Folder</t>
+  </si>
+  <si>
+    <t>Test case to refresh file in job details page Running Folder</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Test case to delete file in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>Test case to Compress File in  list view</t>
+  </si>
+  <si>
+    <t>Test case to Compress File in  tile view</t>
+  </si>
+  <si>
+    <t>ToCompress_LV.txt</t>
+  </si>
+  <si>
+    <t>ToCompress_TV.txt</t>
+  </si>
+  <si>
+    <t>Compress</t>
+  </si>
+  <si>
+    <t>include rename</t>
+  </si>
+  <si>
+    <t>RegularInComplete</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Test to create profile for Optistruct - With Local file</t>
+  </si>
+  <si>
+    <t>OptiPro-WithLocalFile</t>
+  </si>
+  <si>
+    <t>barLocal.fem</t>
+  </si>
+  <si>
+    <t>NoFile</t>
+  </si>
+  <si>
+    <t>Test to create profile for RegularInComplete - WithOut Files</t>
+  </si>
+  <si>
+    <t>RegIncPro-NoFile</t>
+  </si>
+  <si>
+    <t>Test to cancel profile creation for RegularInComplete</t>
+  </si>
+  <si>
+    <t>ShortCut</t>
+  </si>
+  <si>
+    <t>Test case for JobSubmission - Radioss - Required Fields - Change NCPU - Using Local Files</t>
+  </si>
+  <si>
+    <t>CUBE_0000.rad</t>
+  </si>
+  <si>
+    <t>LocalRad</t>
+  </si>
+  <si>
+    <t>Test case to open file in list view</t>
+  </si>
+  <si>
+    <t>ToOpen_LV.txt</t>
+  </si>
+  <si>
+    <t>Test case to open file in tile view</t>
+  </si>
+  <si>
+    <t>ToOpen_TV.txt</t>
+  </si>
+  <si>
+    <t>Test case to open file through open with option in list view</t>
+  </si>
+  <si>
+    <t>ToOpenWith_LV.txt</t>
+  </si>
+  <si>
+    <t>Test case to open file through open with option in tile view</t>
+  </si>
+  <si>
+    <t>ToOpenWith_TV.txt</t>
+  </si>
+  <si>
+    <t>Test case to edit file and save it</t>
+  </si>
+  <si>
+    <t>EditSave</t>
+  </si>
+  <si>
+    <t>ContextMenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case to edit file and cancel save </t>
+  </si>
+  <si>
+    <t>EditCancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case to edit fileand hit Close button </t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Test case to Compress Folder in list view</t>
+  </si>
+  <si>
+    <t>MyFolderCompress_LV</t>
+  </si>
+  <si>
+    <t>Compress_icon</t>
+  </si>
+  <si>
+    <t>Test case to Compress Folder in tile view</t>
+  </si>
+  <si>
+    <t>MyFolderCompress_TV</t>
+  </si>
+  <si>
+    <t>Test case to Cut File in tile view</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Test case to add new application</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>sh Running.sh</t>
+  </si>
+  <si>
+    <t>New App</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Verify that user is able to make a clone copy of the application</t>
+  </si>
+  <si>
+    <t>Clone</t>
+  </si>
+  <si>
+    <t>Verify that user is able to delete the application in App Composer</t>
+  </si>
+  <si>
+    <t>Deleteapp</t>
+  </si>
+  <si>
+    <t>ToUpload.txt</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Job Action for Queued Job - Move to Queue</t>
+  </si>
+  <si>
+    <t>move_to_queue</t>
+  </si>
+  <si>
+    <t>UserChoice</t>
+  </si>
+  <si>
+    <t>InputFolder</t>
+  </si>
+  <si>
+    <t>Verify that when a folder is uploaded - successful notification is displayed</t>
+  </si>
+  <si>
+    <t>Ops</t>
+  </si>
+  <si>
+    <t>DynamicInComplete</t>
+  </si>
+  <si>
+    <t>SleepJobArray</t>
+  </si>
+  <si>
+    <t>DynIncPro-WithRemoteFile</t>
+  </si>
+  <si>
+    <t>ArrayJobPro -WithLocalFile</t>
+  </si>
+  <si>
+    <t>FolderUpload</t>
+  </si>
+  <si>
+    <t>Test case for JobSubmission - Shell Script - All Fields - Change Output Folder  - Using Remote Files</t>
+  </si>
+  <si>
+    <t>Test case for   JobSubmission - DynamicInComplete - Required Fields - Change MEMORY - Using Remote Files - With Master and Includes</t>
+  </si>
+  <si>
+    <t>Master.fem</t>
+  </si>
+  <si>
+    <t>Test case for JobSubmission - RegularInComplete - Required Fields - Change NCPU  - Using Remote Files</t>
+  </si>
+  <si>
+    <t>Test case for   JobSubmission - Optistruct - All Fields - Change Output Folder  - Using Local Files</t>
+  </si>
+  <si>
+    <t>Test case for JobSubmission - SleepJobArray  - Required Fields - Change MEMORY - Using Remote Files</t>
+  </si>
+  <si>
+    <t>Test case to  open Folder in listview Context Menu</t>
+  </si>
+  <si>
+    <t>Test case to  open Folder in listview Double Click</t>
+  </si>
+  <si>
+    <t>MultipleFolderFilesIconsJS</t>
+  </si>
+  <si>
+    <t>Test case to  open Folder in tile view Context Menu</t>
+  </si>
+  <si>
+    <t>Test case to  open Folder in tileview Double Click</t>
+  </si>
+  <si>
+    <t>Verify Process with is present in FileViewer and submit the job</t>
+  </si>
+  <si>
+    <t>Process With</t>
+  </si>
+  <si>
     <t>Queue</t>
   </si>
   <si>
-    <t>VER</t>
-  </si>
-  <si>
-    <t>OUTFOLDER</t>
-  </si>
-  <si>
-    <t>proName</t>
-  </si>
-  <si>
-    <t>InputFile</t>
-  </si>
-  <si>
-    <t>fileArg</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Remote</t>
-  </si>
-  <si>
-    <t>JobState</t>
-  </si>
-  <si>
-    <t>JobAction</t>
-  </si>
-  <si>
-    <t>Test case for JobSubmission - Radioss - Required Fields - Change Version - Using Remote Files</t>
-  </si>
-  <si>
-    <t>Test case for  JobSubmission - Optistruct - All Fields - Change Queue  - Using Remote Files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test case to delete file from file details page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Jobs Filter for compute queue </t>
-  </si>
-  <si>
-    <t>terminate_icon</t>
-  </si>
-  <si>
-    <t>ToRename.txt</t>
-  </si>
-  <si>
-    <t>ProfileType</t>
-  </si>
-  <si>
-    <t>job_state_filters</t>
-  </si>
-  <si>
-    <t>jobState</t>
-  </si>
-  <si>
-    <t>Verify Jobs Filter for Completed State</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Verify Jobs Filter for Running State</t>
-  </si>
-  <si>
-    <t>Verify Jobs Filter for Failed State</t>
-  </si>
-  <si>
-    <t>Verify Jobs Filter for Queued State</t>
-  </si>
-  <si>
-    <t>fileName</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Test to submit job in list view using ShellScript</t>
-  </si>
-  <si>
-    <t>Test to submit job in list view using RADIOSS-SMP</t>
-  </si>
-  <si>
-    <t>Test to submit job in list view using Optistruct</t>
-  </si>
-  <si>
-    <t>ProfileSubmissions</t>
-  </si>
-  <si>
-    <t>ProfileOperations</t>
-  </si>
-  <si>
-    <t>JobActionIcon</t>
-  </si>
-  <si>
-    <t>JS-Latest</t>
-  </si>
-  <si>
-    <t>JobSubmission-File operations</t>
-  </si>
-  <si>
-    <t>FolderOperations</t>
-  </si>
-  <si>
-    <t>FileOperations</t>
-  </si>
-  <si>
-    <t>JobFilters</t>
-  </si>
-  <si>
-    <t>FileViewerOps</t>
-  </si>
-  <si>
-    <t>CreateFolder</t>
-  </si>
-  <si>
-    <t>CreateFile</t>
-  </si>
-  <si>
-    <t>/stage/JSOutPutDir</t>
-  </si>
-  <si>
-    <t>userChoice</t>
-  </si>
-  <si>
-    <t>Verify Jobs Filter for Array Jobs</t>
-  </si>
-  <si>
-    <t>job_array_filters</t>
-  </si>
-  <si>
-    <t>Job Type</t>
-  </si>
-  <si>
-    <t>Array Jobs</t>
-  </si>
-  <si>
-    <t>ListView</t>
-  </si>
-  <si>
-    <t>TileView</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Open With</t>
-  </si>
-  <si>
-    <t>Test case to open file in job details page Input Folder</t>
-  </si>
-  <si>
-    <t>Test case to open with  file in job details page Input Folder</t>
-  </si>
-  <si>
-    <t>Test case to download file in job details page Input Folder</t>
-  </si>
-  <si>
-    <t>Test case to delete file in job details page Input Folder</t>
-  </si>
-  <si>
-    <t>Test case to open file in job details page Output Folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open </t>
-  </si>
-  <si>
-    <t>Test case to open with  file in job details page Output Folder</t>
-  </si>
-  <si>
-    <t>Test case to create new file in job details page Output Folder</t>
-  </si>
-  <si>
-    <t>New File</t>
-  </si>
-  <si>
-    <t>Test case to download file in job details page Output Folder</t>
-  </si>
-  <si>
-    <t>Test case to rename file in job details page Output Folder</t>
-  </si>
-  <si>
-    <t>Test case to open file in job details page Running Folder</t>
-  </si>
-  <si>
-    <t>Test case to open with  file in job details page Running Folder</t>
-  </si>
-  <si>
-    <t>Test case to create new file in job details page Running Folder</t>
-  </si>
-  <si>
-    <t>Test case to refresh file in job details page Running Folder</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Test case to delete file in job details page Output Folder</t>
-  </si>
-  <si>
-    <t>Test case to Compress File in  list view</t>
-  </si>
-  <si>
-    <t>Test case to Compress File in  tile view</t>
-  </si>
-  <si>
-    <t>ToCompress_LV.txt</t>
-  </si>
-  <si>
-    <t>ToCompress_TV.txt</t>
-  </si>
-  <si>
-    <t>Compress</t>
-  </si>
-  <si>
-    <t>include rename</t>
-  </si>
-  <si>
-    <t>RegularInComplete</t>
-  </si>
-  <si>
-    <t>RegIncPro</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Test to create profile for Optistruct - With Local file</t>
-  </si>
-  <si>
-    <t>OptiPro-WithLocalFile</t>
-  </si>
-  <si>
-    <t>barLocal.fem</t>
-  </si>
-  <si>
-    <t>NoFile</t>
-  </si>
-  <si>
-    <t>Test to create profile for RegularInComplete - WithOut Files</t>
-  </si>
-  <si>
-    <t>RegIncPro-NoFile</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Test to cancel profile creation for RegularInComplete</t>
-  </si>
-  <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>Test case for JobSubmission - Shell Script - All Fields - Change Output Folder  - Using Remote Files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test case for JobSubmission - Shell Script - Required Fields - Change NCPU - Using ShortCut Fles </t>
-  </si>
-  <si>
-    <t>SCRunJob.sh</t>
-  </si>
-  <si>
-    <t>ShortCut</t>
-  </si>
-  <si>
-    <t>Test case for JobSubmission - Radioss - All Fields - Change Queue  - Using Remote Files</t>
-  </si>
-  <si>
-    <t>Test case for JobSubmission - Radioss - Required Fields - Change NCPU - Using Local Files</t>
-  </si>
-  <si>
-    <t>CUBE_0000.rad</t>
-  </si>
-  <si>
-    <t>LocalRad</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Test case for  JobSubmission - Optistruct - Required Fields - Change MEMORY - Using Local Files</t>
-  </si>
-  <si>
-    <t>Test case for JobSubmission - Shell Script - Required Fields - Change MEMORY - Using Local Files</t>
-  </si>
-  <si>
-    <t>Test case for JobSubmission - Shell Script - Required Fields - Change NCPU  - Using Local Files</t>
-  </si>
-  <si>
-    <t>RunningJob.sh</t>
-  </si>
-  <si>
-    <t>Test case to open file in list view</t>
-  </si>
-  <si>
-    <t>ToOpen_LV.txt</t>
-  </si>
-  <si>
-    <t>Test case to open file in tile view</t>
-  </si>
-  <si>
-    <t>ToOpen_TV.txt</t>
-  </si>
-  <si>
-    <t>Test case to open file through open with option in list view</t>
-  </si>
-  <si>
-    <t>ToOpenWith_LV.txt</t>
-  </si>
-  <si>
-    <t>Test case to open file through open with option in tile view</t>
-  </si>
-  <si>
-    <t>ToOpenWith_TV.txt</t>
-  </si>
-  <si>
-    <t>Test case to edit file and save it</t>
-  </si>
-  <si>
-    <t>EditSave</t>
-  </si>
-  <si>
-    <t>ContextMenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test case to edit file and cancel save </t>
-  </si>
-  <si>
-    <t>EditCancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test case to edit fileand hit Close button </t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Test case to Compress Folder in list view</t>
-  </si>
-  <si>
-    <t>MyFolderCompress_LV</t>
-  </si>
-  <si>
-    <t>Compress_icon</t>
-  </si>
-  <si>
-    <t>Test case to Compress Folder in tile view</t>
-  </si>
-  <si>
-    <t>MyFolderCompress_TV</t>
-  </si>
-  <si>
-    <t>Test case to Cut File in tile view</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>exec</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>Test case to add new application</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>sh Running.sh</t>
-  </si>
-  <si>
-    <t>New App</t>
-  </si>
-  <si>
-    <t>Test case to add application with dulplicate name</t>
-  </si>
-  <si>
-    <t>Duplicate App</t>
-  </si>
-  <si>
-    <t>Test case to add application name with special char</t>
-  </si>
-  <si>
-    <t>Test@123File</t>
-  </si>
-  <si>
-    <t>Special char</t>
-  </si>
-  <si>
-    <t>Test case to delete existing app</t>
-  </si>
-  <si>
-    <t>Delete App</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test case to verify job monitoring pop up </t>
-  </si>
-  <si>
-    <t>TestJm</t>
+    <t>Testcase to Verify JobMonitoring Popup</t>
+  </si>
+  <si>
+    <t>TestJM</t>
   </si>
   <si>
     <t>JM pop up</t>
   </si>
   <si>
-    <t>Test case to verify pop up for queued job</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Queued state</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit/clone/share/delete the cloned copy of the application</t>
-  </si>
-  <si>
-    <t>Newapp</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Verify that user is able to make a clone copy of the application</t>
-  </si>
-  <si>
-    <t>Clone</t>
-  </si>
-  <si>
-    <t>Verify that when admin user publishes the app a pop up is shown to the all the users</t>
-  </si>
-  <si>
-    <t>Publishall</t>
-  </si>
-  <si>
-    <t>Globally published apps should show up in access management</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>Access</t>
-  </si>
-  <si>
-    <t>Verify that admin is able to un-publish the app to all the users</t>
-  </si>
-  <si>
-    <t>Unpublish</t>
-  </si>
-  <si>
-    <t>Verify that only admin user is able to publish to all the users &amp; the published app is available to all the users</t>
-  </si>
-  <si>
-    <t>Publishapp</t>
-  </si>
-  <si>
-    <t>Publish App</t>
-  </si>
-  <si>
-    <t>Verify that user is able to delete the application in App Composer</t>
-  </si>
-  <si>
-    <t>Deleteapp</t>
-  </si>
-  <si>
-    <t>Verify that user is able to save &amp; submit the application without publishing to all the users</t>
-  </si>
-  <si>
-    <t>Withoutpublish</t>
-  </si>
-  <si>
-    <t>Without Publish</t>
-  </si>
-  <si>
-    <t>Verify that user is able to rename the saved application</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit the saved application</t>
-  </si>
-  <si>
-    <t>Editapp</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>ToUpload.txt</t>
+    <t>Test case to download job  in job details page Input Folder</t>
+  </si>
+  <si>
+    <t>Test case to resubmit job in job details page Input Folder</t>
+  </si>
+  <si>
+    <t>job_detail_resubmit_btn</t>
+  </si>
+  <si>
+    <t>Test case to delete job in in job details page Input Folder</t>
+  </si>
+  <si>
+    <t>job_detail_delete_btn</t>
+  </si>
+  <si>
+    <t>Test case to terminate the job in job details page Running Folder</t>
+  </si>
+  <si>
+    <t>job_detail_terminate_btn</t>
+  </si>
+  <si>
+    <t>Test case to download job  in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>Test case to resubmit job in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>Test case to delete job in in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>Test case to edit file in job details page Output Folder</t>
+  </si>
+  <si>
+    <t>Test case to edit file in job details page Running Folder</t>
+  </si>
+  <si>
+    <t>Test case to edit file in job details page Input Folder</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1065,9 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1110,6 +1082,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1181,9 +1156,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1221,7 +1196,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1327,7 +1302,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1469,7 +1444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1484,126 +1459,126 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2">
         <v>3</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>184</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="5">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="1">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <f>SUM(B1:B13)</f>
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
@@ -1631,22 +1606,22 @@
   <sheetPr codeName="Sheet13">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.26953125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -1659,40 +1634,40 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -1701,9 +1676,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -1715,12 +1690,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
@@ -1729,9 +1704,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -1743,12 +1718,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1757,9 +1732,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -1771,59 +1746,31 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1836,27 +1783,173 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5369526-74B4-40A8-BAFF-7B1A8ECF7B19}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{EC4866D5-1FAA-420C-85EF-5C4A979CC3B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A548CD3-E78D-406C-8270-54AB8917EFFA}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4B8566-925A-4EBE-8FA2-F566554280EF}">
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.36328125" customWidth="1"/>
+    <col min="1" max="1" width="54.33203125" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -1869,293 +1962,293 @@
         <v>79</v>
       </c>
       <c r="E1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="D10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="E17" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
+      <c r="D18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DCD494-48E9-4641-90F2-206CAB2F7041}">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FF92D050"/>
@@ -2175,17 +2268,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -2201,7 +2294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2218,7 +2311,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2235,7 +2328,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -2252,7 +2345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2269,15 +2362,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -2286,15 +2379,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
@@ -2303,89 +2396,89 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72A9D9-D447-4A21-A49D-88C8132B73CE}">
   <sheetPr codeName="Sheet17">
     <tabColor rgb="FF92D050"/>
@@ -2405,19 +2498,19 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -2427,105 +2520,105 @@
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2536,7 +2629,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F63E1-0070-48F6-AF52-8BCBFD9B07EF}">
+  <sheetPr codeName="Sheet19">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{115A6EFC-9E58-4CD8-8EA1-4301FC127B44}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5A9AB-486E-4615-848C-03E69B3477F9}">
   <sheetPr codeName="Sheet18">
     <tabColor rgb="FF92D050"/>
@@ -2545,21 +2719,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2567,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2575,7 +2749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2583,7 +2757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2591,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2599,7 +2773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2615,331 +2789,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F63E1-0070-48F6-AF52-8BCBFD9B07EF}">
-  <sheetPr codeName="Sheet19">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5764D4F2-198B-4BC6-B340-3DBA07ADBE83}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{115A6EFC-9E58-4CD8-8EA1-4301FC127B44}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AC3212-D50C-40EA-BEAA-1675A0346518}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="70.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>283</v>
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" t="s">
-        <v>278</v>
-      </c>
-      <c r="E17" t="s">
-        <v>316</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{F1CFB4DA-0745-4C97-BBF8-C63F6CF698BE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2948,274 +2931,393 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="54.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>203</v>
-      </c>
-      <c r="D3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>211</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>203</v>
+      <c r="C14" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C23" s="7"/>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="output">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="output">
       <formula>NOT(ISERROR(SEARCH("output",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="input">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="input">
       <formula>NOT(ISERROR(SEARCH("input",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3236,40 +3338,40 @@
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="87.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -3278,15 +3380,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3295,15 +3397,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3340,53 +3442,53 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -3398,18 +3500,18 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -3421,87 +3523,87 @@
         <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="G4" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -3513,7 +3615,7 @@
         <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3538,41 +3640,41 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -3581,31 +3683,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -3614,31 +3716,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3647,40 +3749,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3691,7 +3793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3702,7 +3804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3713,23 +3815,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -3748,29 +3850,31 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3778,10 +3882,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -3789,10 +3893,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3800,10 +3904,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3811,10 +3915,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3825,7 +3929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -3836,7 +3940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3847,7 +3951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3856,6 +3960,17 @@
       </c>
       <c r="C9" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3874,251 +3989,209 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="81.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="F2" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="14">
+        <v>200</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="14">
+        <v>120</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E5" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="14">
-        <v>2018</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="14">
-        <v>120</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="14">
-        <v>120</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="14">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>229</v>
-      </c>
+      <c r="G7" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4138,17 +4211,17 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -4161,15 +4234,15 @@
         <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -4178,15 +4251,15 @@
         <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -4195,15 +4268,15 @@
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -4212,12 +4285,12 @@
         <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -4226,18 +4299,18 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>

--- a/Data Files/TestDataSanity.xlsx
+++ b/Data Files/TestDataSanity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_Merged\AccessWeb\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_sanity_xrayid\Accessweb_newextent _2024.1.10 - Copy\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2711854-D322-416A-A017-45CD4BF1E41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF9DC7-E869-485A-9C2E-68E61C4EBB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="1" activeTab="6" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="4" activeTab="5" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="26" r:id="rId1"/>
@@ -18,22 +18,23 @@
     <sheet name="JobDetails" sheetId="30" r:id="rId3"/>
     <sheet name="ProfileSubmissions" sheetId="21" r:id="rId4"/>
     <sheet name="ProfileOperations" sheetId="14" r:id="rId5"/>
-    <sheet name="JobAction" sheetId="5" r:id="rId6"/>
-    <sheet name="JobActionIcon" sheetId="18" r:id="rId7"/>
-    <sheet name="JS-Latest" sheetId="16" r:id="rId8"/>
-    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId9"/>
-    <sheet name="FolderOperations" sheetId="11" r:id="rId10"/>
-    <sheet name="FolderOps" sheetId="33" r:id="rId11"/>
-    <sheet name="FileViewer" sheetId="34" r:id="rId12"/>
-    <sheet name="FileOperations" sheetId="9" r:id="rId13"/>
-    <sheet name="JobFilters" sheetId="8" r:id="rId14"/>
-    <sheet name="FileViewerOps" sheetId="15" r:id="rId15"/>
-    <sheet name="CreateFile" sheetId="3" r:id="rId16"/>
-    <sheet name="CreateFolder" sheetId="2" r:id="rId17"/>
-    <sheet name="FolderUpload" sheetId="32" r:id="rId18"/>
+    <sheet name="ProfileDeletion" sheetId="35" r:id="rId6"/>
+    <sheet name="JobAction" sheetId="5" r:id="rId7"/>
+    <sheet name="JobActionIcon" sheetId="18" r:id="rId8"/>
+    <sheet name="JS-Latest" sheetId="16" r:id="rId9"/>
+    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId10"/>
+    <sheet name="FolderOperations" sheetId="11" r:id="rId11"/>
+    <sheet name="FolderOps" sheetId="33" r:id="rId12"/>
+    <sheet name="FileViewer" sheetId="34" r:id="rId13"/>
+    <sheet name="FileOperations" sheetId="9" r:id="rId14"/>
+    <sheet name="JobFilters" sheetId="8" r:id="rId15"/>
+    <sheet name="FileViewerOps" sheetId="15" r:id="rId16"/>
+    <sheet name="CreateFile" sheetId="3" r:id="rId17"/>
+    <sheet name="CreateFolder" sheetId="2" r:id="rId18"/>
+    <sheet name="FolderUpload" sheetId="32" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'JS-Latest'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'JS-Latest'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ProfileSubmissions!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="420">
   <si>
     <t>FolderName</t>
   </si>
@@ -887,9 +888,6 @@
     <t>ArrayJobPro -WithLocalFile</t>
   </si>
   <si>
-    <t>FolderUpload</t>
-  </si>
-  <si>
     <t>Test case for JobSubmission - Shell Script - All Fields - Change Output Folder  - Using Remote Files</t>
   </si>
   <si>
@@ -978,13 +976,352 @@
   </si>
   <si>
     <t>Test case to edit file in job details page Input Folder</t>
+  </si>
+  <si>
+    <t>XrayID</t>
+  </si>
+  <si>
+    <t>AD-3915</t>
+  </si>
+  <si>
+    <t>AD-4388</t>
+  </si>
+  <si>
+    <t>AD-3921</t>
+  </si>
+  <si>
+    <t>AD-5506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD-1630 </t>
+  </si>
+  <si>
+    <t>AD-1631</t>
+  </si>
+  <si>
+    <t>AD-1624</t>
+  </si>
+  <si>
+    <t>AD-1614</t>
+  </si>
+  <si>
+    <t>AD-1625</t>
+  </si>
+  <si>
+    <t>AD-1615</t>
+  </si>
+  <si>
+    <t>AD-1626</t>
+  </si>
+  <si>
+    <t>AD-1627</t>
+  </si>
+  <si>
+    <t>AD-1106</t>
+  </si>
+  <si>
+    <t>AD-1107</t>
+  </si>
+  <si>
+    <t>AD-1108</t>
+  </si>
+  <si>
+    <t>AD-1109</t>
+  </si>
+  <si>
+    <t>AD-1113</t>
+  </si>
+  <si>
+    <t>AD-1114</t>
+  </si>
+  <si>
+    <t>AD-1135</t>
+  </si>
+  <si>
+    <t>AD-1134</t>
+  </si>
+  <si>
+    <t>AD-1105</t>
+  </si>
+  <si>
+    <t>AD-1847</t>
+  </si>
+  <si>
+    <t>AD-1849</t>
+  </si>
+  <si>
+    <t>AD-1853</t>
+  </si>
+  <si>
+    <t>AD-2349</t>
+  </si>
+  <si>
+    <t>AD-5521</t>
+  </si>
+  <si>
+    <t>AD-5522</t>
+  </si>
+  <si>
+    <t>AD-5523</t>
+  </si>
+  <si>
+    <t>AD-3857</t>
+  </si>
+  <si>
+    <t>AD-5041</t>
+  </si>
+  <si>
+    <t>AD-1630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD-1614 </t>
+  </si>
+  <si>
+    <t>AD-1616</t>
+  </si>
+  <si>
+    <t>AD-1617</t>
+  </si>
+  <si>
+    <t>AD-1602</t>
+  </si>
+  <si>
+    <t>AD-1603</t>
+  </si>
+  <si>
+    <t>AD-4221</t>
+  </si>
+  <si>
+    <t>AD-1599</t>
+  </si>
+  <si>
+    <t>AD-5520</t>
+  </si>
+  <si>
+    <t>AD-3588</t>
+  </si>
+  <si>
+    <t>FileUpload</t>
+  </si>
+  <si>
+    <t>AD-2117</t>
+  </si>
+  <si>
+    <t>AD-2119</t>
+  </si>
+  <si>
+    <t>AD-2125</t>
+  </si>
+  <si>
+    <t>AD-2122</t>
+  </si>
+  <si>
+    <t>Ad-2100</t>
+  </si>
+  <si>
+    <t>AD-2102</t>
+  </si>
+  <si>
+    <t>AD-2105</t>
+  </si>
+  <si>
+    <t>AD-2109</t>
+  </si>
+  <si>
+    <t>AD-2124</t>
+  </si>
+  <si>
+    <t>AD-2111</t>
+  </si>
+  <si>
+    <t>AD-2158</t>
+  </si>
+  <si>
+    <t>AD-2116</t>
+  </si>
+  <si>
+    <t>AD-5507</t>
+  </si>
+  <si>
+    <t>AD-5508</t>
+  </si>
+  <si>
+    <t>AD-5509</t>
+  </si>
+  <si>
+    <t>AD-5510</t>
+  </si>
+  <si>
+    <t>AD-5511</t>
+  </si>
+  <si>
+    <t>AD-2150</t>
+  </si>
+  <si>
+    <t>AD-2140</t>
+  </si>
+  <si>
+    <t>AD-2160</t>
+  </si>
+  <si>
+    <t>AD-2149</t>
+  </si>
+  <si>
+    <t>AD-2139</t>
+  </si>
+  <si>
+    <t>AD-2159</t>
+  </si>
+  <si>
+    <t>AD-1495</t>
+  </si>
+  <si>
+    <t>AD-1489</t>
+  </si>
+  <si>
+    <t>AD-5512</t>
+  </si>
+  <si>
+    <t>AD-2317</t>
+  </si>
+  <si>
+    <t>AD-5513</t>
+  </si>
+  <si>
+    <t>AD-3139</t>
+  </si>
+  <si>
+    <t>AD-5515</t>
+  </si>
+  <si>
+    <t>AD-1500</t>
+  </si>
+  <si>
+    <t>AD-2324</t>
+  </si>
+  <si>
+    <t>AD-2329</t>
+  </si>
+  <si>
+    <t>AD-1493</t>
+  </si>
+  <si>
+    <t>AD-5516</t>
+  </si>
+  <si>
+    <t>AD-5517</t>
+  </si>
+  <si>
+    <t>AD-5518</t>
+  </si>
+  <si>
+    <t>AD-5519</t>
+  </si>
+  <si>
+    <t>AD-1423</t>
+  </si>
+  <si>
+    <t>AD-1424</t>
+  </si>
+  <si>
+    <t>AD-1421</t>
+  </si>
+  <si>
+    <t>AD-1425</t>
+  </si>
+  <si>
+    <t>AD-1278</t>
+  </si>
+  <si>
+    <t>AD-1279</t>
+  </si>
+  <si>
+    <t>AD-5539</t>
+  </si>
+  <si>
+    <t>AD-5530</t>
+  </si>
+  <si>
+    <t>AD-5531</t>
+  </si>
+  <si>
+    <t>AD-5532</t>
+  </si>
+  <si>
+    <t>AD-5533</t>
+  </si>
+  <si>
+    <t>AD-5524</t>
+  </si>
+  <si>
+    <t>AD-5525</t>
+  </si>
+  <si>
+    <t>AD-5526</t>
+  </si>
+  <si>
+    <t>AD-5527</t>
+  </si>
+  <si>
+    <t>AD-5528</t>
+  </si>
+  <si>
+    <t>AD-5529</t>
+  </si>
+  <si>
+    <t>AD-5554</t>
+  </si>
+  <si>
+    <t>AD-5555</t>
+  </si>
+  <si>
+    <t>AD-5556</t>
+  </si>
+  <si>
+    <t>Test to Delete profile for ShellScript</t>
+  </si>
+  <si>
+    <t>Test to Delete profile for RADIOSS-SMP</t>
+  </si>
+  <si>
+    <t>Test to Deleteprofile for Optistruct - With Local file</t>
+  </si>
+  <si>
+    <t>Test to Delete profile for RegularInComplete - WithOut Files</t>
+  </si>
+  <si>
+    <t>Test to Delete profile creation for RegularInComplete</t>
+  </si>
+  <si>
+    <t>Test to create profile for SleepJobArray</t>
+  </si>
+  <si>
+    <t>Test to Delete profile for SleepJobArray</t>
+  </si>
+  <si>
+    <t>AD-5557</t>
+  </si>
+  <si>
+    <t>AD-5558</t>
+  </si>
+  <si>
+    <t>AD-5559</t>
+  </si>
+  <si>
+    <t>AD-5560</t>
+  </si>
+  <si>
+    <t>AD-5561</t>
+  </si>
+  <si>
+    <t>AD-5562</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,6 +1353,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1063,7 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1085,12 +1443,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1602,14 +1975,139 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AB462C-E7DD-41D5-B1F6-0B76A79BD546}">
+  <sheetPr codeName="Sheet10">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{7D699DB4-7553-4C7F-9503-FEF0ED3DBE3C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6364318-D354-4A54-B885-C4D13BCF1553}">
   <sheetPr codeName="Sheet13">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,7 +2118,7 @@
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1633,8 +2131,11 @@
       <c r="D1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -1647,8 +2148,11 @@
       <c r="D2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>250</v>
       </c>
@@ -1661,8 +2165,11 @@
       <c r="D3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1675,8 +2182,11 @@
       <c r="D4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1689,8 +2199,11 @@
       <c r="D5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1703,8 +2216,11 @@
       <c r="D6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1717,8 +2233,11 @@
       <c r="D7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1731,8 +2250,11 @@
       <c r="D8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -1745,8 +2267,11 @@
       <c r="D9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -1759,8 +2284,11 @@
       <c r="D10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -1772,6 +2300,9 @@
       </c>
       <c r="D11" t="s">
         <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -1782,15 +2313,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5369526-74B4-40A8-BAFF-7B1A8ECF7B19}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,7 +2332,7 @@
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1814,13 +2345,16 @@
       <c r="D1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
         <v>195</v>
@@ -1828,13 +2362,16 @@
       <c r="D2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
         <v>195</v>
@@ -1842,13 +2379,16 @@
       <c r="D3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" t="s">
         <v>285</v>
-      </c>
-      <c r="B4" t="s">
-        <v>286</v>
       </c>
       <c r="C4" t="s">
         <v>195</v>
@@ -1856,19 +2396,25 @@
       <c r="D4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" t="s">
         <v>195</v>
       </c>
       <c r="D5" t="s">
         <v>246</v>
+      </c>
+      <c r="E5" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -1879,15 +2425,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A548CD3-E78D-406C-8270-54AB8917EFFA}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,7 +2444,7 @@
     <col min="4" max="4" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1911,16 +2457,22 @@
       <c r="D1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="E2" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -1928,15 +2480,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4B8566-925A-4EBE-8FA2-F566554280EF}">
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1948,7 +2500,7 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1964,8 +2516,11 @@
       <c r="E1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>213</v>
       </c>
@@ -1981,8 +2536,11 @@
       <c r="E2" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>214</v>
       </c>
@@ -1998,8 +2556,11 @@
       <c r="E3" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>110</v>
       </c>
@@ -2015,8 +2576,11 @@
       <c r="E4" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>111</v>
       </c>
@@ -2032,8 +2596,11 @@
       <c r="E5" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>112</v>
       </c>
@@ -2049,8 +2616,11 @@
       <c r="E6" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>252</v>
       </c>
@@ -2066,8 +2636,11 @@
       <c r="E7" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -2083,8 +2656,11 @@
       <c r="E8" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
@@ -2100,8 +2676,11 @@
       <c r="E9" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -2117,8 +2696,11 @@
       <c r="E10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>234</v>
       </c>
@@ -2134,8 +2716,11 @@
       <c r="E11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -2151,8 +2736,11 @@
       <c r="E12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>238</v>
       </c>
@@ -2168,8 +2756,11 @@
       <c r="E13" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -2185,8 +2776,11 @@
       <c r="E14" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -2202,8 +2796,11 @@
       <c r="E15" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2216,8 +2813,11 @@
       <c r="D16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>119</v>
       </c>
@@ -2233,8 +2833,11 @@
       <c r="E17" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>120</v>
       </c>
@@ -2249,6 +2852,9 @@
       </c>
       <c r="E18" s="8" t="s">
         <v>194</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2259,14 +2865,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DCD494-48E9-4641-90F2-206CAB2F7041}">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2277,7 +2885,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -2293,8 +2901,11 @@
       <c r="E1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2310,8 +2921,11 @@
       <c r="E2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2327,8 +2941,11 @@
       <c r="E3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -2344,8 +2961,11 @@
       <c r="E4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2361,8 +2981,11 @@
       <c r="E5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -2378,8 +3001,11 @@
       <c r="E6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -2395,8 +3021,11 @@
       <c r="E7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -2412,8 +3041,11 @@
       <c r="E8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -2429,8 +3061,11 @@
       <c r="E9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -2446,8 +3081,11 @@
       <c r="E10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -2463,8 +3101,11 @@
       <c r="E11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -2479,6 +3120,9 @@
       </c>
       <c r="E12" t="s">
         <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2490,15 +3134,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72A9D9-D447-4A21-A49D-88C8132B73CE}">
   <sheetPr codeName="Sheet17">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2509,7 +3153,7 @@
     <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -2522,8 +3166,11 @@
       <c r="D1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -2536,8 +3183,11 @@
       <c r="D2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -2550,8 +3200,11 @@
       <c r="D3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -2564,8 +3217,11 @@
       <c r="D4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -2578,8 +3234,11 @@
       <c r="D5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2592,8 +3251,11 @@
       <c r="D6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -2606,8 +3268,11 @@
       <c r="D7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -2619,6 +3284,9 @@
       </c>
       <c r="D8" t="s">
         <v>246</v>
+      </c>
+      <c r="E8" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2629,15 +3297,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F63E1-0070-48F6-AF52-8BCBFD9B07EF}">
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2647,7 +3315,7 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -2657,8 +3325,11 @@
       <c r="C1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2668,8 +3339,11 @@
       <c r="C2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2680,7 +3354,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -2691,7 +3365,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2710,14 +3384,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5A9AB-486E-4615-848C-03E69B3477F9}">
   <sheetPr codeName="Sheet18">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2789,12 +3465,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5764D4F2-198B-4BC6-B340-3DBA07ADBE83}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2804,7 +3480,7 @@
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -2814,16 +3490,22 @@
       <c r="C1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
         <v>271</v>
       </c>
       <c r="C2" t="s">
         <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2833,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AC3212-D50C-40EA-BEAA-1675A0346518}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2847,7 +3529,7 @@
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2863,8 +3545,11 @@
       <c r="E1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -2877,22 +3562,28 @@
       <c r="E2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
         <v>292</v>
-      </c>
-      <c r="B3" t="s">
-        <v>293</v>
       </c>
       <c r="C3" t="s">
         <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="F3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>261</v>
       </c>
@@ -2905,8 +3596,11 @@
       <c r="E4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -2918,6 +3612,9 @@
       </c>
       <c r="E5" t="s">
         <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2931,10 +3628,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2945,7 +3642,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -2961,8 +3658,11 @@
       <c r="E1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -2975,8 +3675,11 @@
       <c r="D2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -2989,8 +3692,11 @@
       <c r="D3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>203</v>
       </c>
@@ -3003,8 +3709,11 @@
       <c r="D4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -3017,8 +3726,11 @@
       <c r="D5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -3031,8 +3743,11 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -3045,8 +3760,11 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -3059,8 +3777,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>210</v>
       </c>
@@ -3073,8 +3794,11 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>212</v>
       </c>
@@ -3087,8 +3811,11 @@
       <c r="D10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -3101,8 +3828,11 @@
       <c r="D11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -3115,8 +3845,11 @@
       <c r="D12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -3129,80 +3862,98 @@
       <c r="D13" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -3213,10 +3964,13 @@
       <c r="D19" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -3227,10 +3981,13 @@
       <c r="D20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -3241,8 +3998,11 @@
       <c r="D21" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -3255,8 +4015,11 @@
       <c r="D22" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>205</v>
       </c>
@@ -3269,8 +4032,11 @@
       <c r="D23" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -3283,10 +4049,13 @@
       <c r="D24" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -3297,10 +4066,13 @@
       <c r="D25" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -3311,13 +4083,16 @@
       <c r="D26" t="s">
         <v>171</v>
       </c>
+      <c r="F26" t="s">
+        <v>371</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="output">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="output">
       <formula>NOT(ISERROR(SEARCH("output",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="input">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="input">
       <formula>NOT(ISERROR(SEARCH("input",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3334,9 +4109,11 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3346,7 +4123,7 @@
     <col min="4" max="4" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -3362,8 +4139,11 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -3379,8 +4159,11 @@
       <c r="E2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -3396,8 +4179,11 @@
       <c r="E3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -3413,16 +4199,19 @@
       <c r="E4" t="s">
         <v>73</v>
       </c>
+      <c r="F4" s="16" t="s">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A2:E4 G2:XFD4 A5:XFD1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"RADIOSS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Optistruct"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"ShellScript"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3439,10 +4228,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3457,7 +4246,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -3479,8 +4268,11 @@
       <c r="G1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -3502,8 +4294,11 @@
       <c r="G2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3525,8 +4320,11 @@
       <c r="G3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>221</v>
       </c>
@@ -3548,8 +4346,11 @@
       <c r="G4" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>225</v>
       </c>
@@ -3571,8 +4372,11 @@
       <c r="G5" s="9" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>227</v>
       </c>
@@ -3594,10 +4398,13 @@
       <c r="G6" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>274</v>
@@ -3617,10 +4424,13 @@
       <c r="G7" t="s">
         <v>220</v>
       </c>
+      <c r="H7" s="16" t="s">
+        <v>403</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:G6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="basic">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="basic">
       <formula>NOT(ISERROR(SEARCH("basic",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3633,14 +4443,235 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D950F5E-6F08-4BFF-9925-78C82D3FD66A}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="A4:G6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="basic">
+      <formula>NOT(ISERROR(SEARCH("basic",A4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{4A42EC8C-C625-4923-A614-635EB10FE6C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A7684-571C-4EED-95D8-7F34A7B49B6B}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3650,7 +4681,7 @@
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -3660,8 +4691,11 @@
       <c r="C1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -3671,8 +4705,11 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3682,8 +4719,11 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3693,8 +4733,11 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3704,8 +4747,11 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3715,8 +4761,11 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3726,8 +4775,11 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3737,8 +4789,11 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3748,8 +4803,11 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3759,8 +4817,11 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3770,8 +4831,11 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3781,8 +4845,11 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3792,8 +4859,11 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3803,8 +4873,11 @@
       <c r="C14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3814,8 +4887,11 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3825,8 +4901,11 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3835,6 +4914,9 @@
       </c>
       <c r="C17" t="s">
         <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3845,15 +4927,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EE12FB-03D5-4E75-92F5-3C993AAF3A5A}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3863,7 +4945,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -3873,8 +4955,11 @@
       <c r="C1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3884,8 +4969,11 @@
       <c r="C2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -3895,8 +4983,11 @@
       <c r="C3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3906,8 +4997,11 @@
       <c r="C4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3917,8 +5011,11 @@
       <c r="C5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3928,8 +5025,11 @@
       <c r="C6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -3939,8 +5039,11 @@
       <c r="C7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3950,8 +5053,11 @@
       <c r="C8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3961,8 +5067,11 @@
       <c r="C9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -3971,6 +5080,9 @@
       </c>
       <c r="C10" t="s">
         <v>268</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3981,15 +5093,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BBAD8-8992-4A11-B32C-5E8E74095072}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4005,7 +5117,7 @@
     <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -4027,10 +5139,13 @@
       <c r="G1" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>11</v>
@@ -4050,8 +5165,11 @@
       <c r="G2" s="14" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>229</v>
       </c>
@@ -4073,10 +5191,13 @@
       <c r="G3" s="14" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>273</v>
@@ -4085,7 +5206,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>145</v>
@@ -4096,10 +5217,13 @@
       <c r="G4" s="14" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>219</v>
@@ -4111,7 +5235,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="14">
         <v>2</v>
@@ -4119,10 +5243,13 @@
       <c r="G5" s="14" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>55</v>
@@ -4142,10 +5269,13 @@
       <c r="G6" s="14" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>274</v>
@@ -4165,8 +5295,11 @@
       <c r="G7" s="14" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -4175,7 +5308,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -4184,7 +5317,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -4194,133 +5327,11 @@
       <c r="G10" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{3B112816-FD78-4E98-A83D-B29BB1C34A04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AB462C-E7DD-41D5-B1F6-0B76A79BD546}">
-  <sheetPr codeName="Sheet10">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="45.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{7D699DB4-7553-4C7F-9503-FEF0ED3DBE3C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>